--- a/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
+++ b/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題\資料庫設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC971E7-FD72-4613-BB50-7E4F6970BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8E0DC-2274-4052-B6D9-A4810AAD9A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="1968" windowWidth="17280" windowHeight="9420" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -77,368 +77,370 @@
     <t>特別標籤</t>
   </si>
   <si>
+    <t>文字雲</t>
+  </si>
+  <si>
+    <t>網址</t>
+  </si>
+  <si>
+    <t>是否為特約</t>
+  </si>
+  <si>
+    <t>是否為未知店家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店家本地評價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地評價id</t>
+  </si>
+  <si>
+    <t>標題</t>
+  </si>
+  <si>
+    <t>一般會員id</t>
+  </si>
+  <si>
+    <t>內容</t>
+  </si>
+  <si>
+    <t>店家本地評價照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店家外部評價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店家照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般會員id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般會員收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店家會員id</t>
+  </si>
+  <si>
+    <t>店家會員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片</t>
+  </si>
+  <si>
+    <t>外部評價id</t>
+  </si>
+  <si>
+    <t>店家照片id</t>
+  </si>
+  <si>
+    <t>帳號</t>
+  </si>
+  <si>
+    <t>密碼</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>年齡</t>
+  </si>
+  <si>
+    <t>年級</t>
+  </si>
+  <si>
+    <t>科系</t>
+  </si>
+  <si>
+    <t>頭像</t>
+  </si>
+  <si>
+    <t>背景圖</t>
+  </si>
+  <si>
+    <t>偏好</t>
+  </si>
+  <si>
+    <t>紀錄id</t>
+  </si>
+  <si>
+    <t>起始時間</t>
+  </si>
+  <si>
+    <t>結束時間</t>
+  </si>
+  <si>
+    <t>store_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>wordcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_info_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external_comment_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_local_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_local_comment_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_external_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_appointed_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_unknown_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_from_store_owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_collection_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>browsing_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_owner_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_score_record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_nane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按讚數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評價照片id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否為店家上傳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擁有的店家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>食物類別</t>
-  </si>
-  <si>
-    <t>文字雲</t>
-  </si>
-  <si>
-    <t>網址</t>
-  </si>
-  <si>
-    <t>是否為特約</t>
-  </si>
-  <si>
-    <t>是否為未知店家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店家本地評價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地評價id</t>
-  </si>
-  <si>
-    <t>標題</t>
-  </si>
-  <si>
-    <t>一般會員id</t>
-  </si>
-  <si>
-    <t>內容</t>
-  </si>
-  <si>
-    <t>店家本地評價照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店家外部評價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店家照片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般會員id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般會員收藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店家會員id</t>
-  </si>
-  <si>
-    <t>店家會員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瀏覽紀錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖片</t>
-  </si>
-  <si>
-    <t>外部評價id</t>
-  </si>
-  <si>
-    <t>店家照片id</t>
-  </si>
-  <si>
-    <t>帳號</t>
-  </si>
-  <si>
-    <t>密碼</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>年齡</t>
-  </si>
-  <si>
-    <t>年級</t>
-  </si>
-  <si>
-    <t>科系</t>
-  </si>
-  <si>
-    <t>頭像</t>
-  </si>
-  <si>
-    <t>背景圖</t>
-  </si>
-  <si>
-    <t>偏好</t>
-  </si>
-  <si>
-    <t>紀錄id</t>
-  </si>
-  <si>
-    <t>起始時間</t>
-  </si>
-  <si>
-    <t>結束時間</t>
-  </si>
-  <si>
-    <t>store_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>wordcloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_info_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>business_hour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>external_comment_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_local_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_local_comment_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_external_comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_image_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_appointed_store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_unknown_store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_from_store_owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_collection_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>browsing_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_owner</t>
-  </si>
-  <si>
-    <t>store_owner_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_score_record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>store_nane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>history_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>評分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按讚數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>評價照片id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>標籤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否為店家上傳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擁有的店家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,18 +480,23 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -506,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,8 +529,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,11 +849,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274A3F-2439-453C-AE31-8E43326EAB0C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -854,8 +865,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -866,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -877,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -888,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -899,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -910,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -921,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -932,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -943,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -954,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -965,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -976,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -987,10 +999,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,10 +1032,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,18 +1043,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1061,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
@@ -1083,10 +1096,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1118,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1129,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,18 +1140,19 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1157,10 +1171,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,18 +1204,19 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
       <c r="B36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
@@ -1220,10 +1235,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,10 +1257,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,18 +1268,19 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1272,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -1283,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1294,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1305,10 +1321,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1327,18 +1343,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1357,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1368,10 +1385,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1379,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1390,10 +1407,10 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1401,10 +1418,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1412,10 +1429,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1423,10 +1440,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1434,10 +1451,10 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1445,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1456,10 +1473,10 @@
         <v>11</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1467,10 +1484,10 @@
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1478,18 +1495,19 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C66" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1497,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1508,18 +1526,19 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
       <c r="B70" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -1538,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1571,18 +1590,19 @@
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
       <c r="B77" s="5" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1601,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>4</v>
@@ -1612,10 +1632,10 @@
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1623,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1634,10 +1654,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
@@ -1653,7 +1673,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
+++ b/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題\資料庫設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8E0DC-2274-4052-B6D9-A4810AAD9A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8FBAD8-1B47-49ED-9A8D-C574091EE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
+    <workbookView xWindow="3168" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>店家資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,14 @@
   </si>
   <si>
     <t>食物類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude_longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經緯度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,9 +860,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -955,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -966,10 +976,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -977,10 +987,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -999,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1020,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1021,10 +1031,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1032,10 +1042,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1043,631 +1053,642 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>8</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5" t="s">
+    <row r="37" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5" t="s">
+    <row r="44" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>13</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>1</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>2</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>1</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>5</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="5" t="s">
+    <row r="78" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <v>6</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
+++ b/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題\資料庫設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題\資料庫\資料庫設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8FBAD8-1B47-49ED-9A8D-C574091EE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06708BD-A42A-498F-8128-8D35D8662C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
   <si>
     <t>店家資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,10 @@
   </si>
   <si>
     <t>經緯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=食物, 1=其他, 2=菜單, 3=頭像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,10 +864,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -1358,8 +1362,11 @@
       <c r="C49" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>6</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="5" t="s">
         <v>77</v>
@@ -1379,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>4</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>5</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>6</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>7</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>8</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>9</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>10</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>11</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>12</v>
       </c>

--- a/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
+++ b/檔案繳交/資料庫/10846043/資料庫欄位說明.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題\資料庫\資料庫設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin\Downloads\專題_個人\project_personal\資料庫\資料庫設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06708BD-A42A-498F-8128-8D35D8662C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C40223B-D828-44B4-A59B-A1F12C1B858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F33B8586-EAE6-4F37-865A-7EC5A8F2E05E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
   <si>
     <t>店家資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,10 @@
   </si>
   <si>
     <t>0=食物, 1=其他, 2=菜單, 3=頭像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按讚過的討論區</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -875,7 +879,8 @@
     <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="17.88671875" style="1"/>
+    <col min="4" max="4" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="17.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
@@ -1518,7 +1523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>13</v>
       </c>
@@ -1528,8 +1533,11 @@
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="5" t="s">
         <v>89</v>
@@ -1538,7 +1546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -1549,7 +1557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="5" t="s">
         <v>90</v>
@@ -1569,7 +1577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -1580,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>3</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>5</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="22.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="5" t="s">
         <v>109</v>
@@ -1633,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>2</v>
       </c>
